--- a/SDN acceptances/all_acceptances_processed.xlsx
+++ b/SDN acceptances/all_acceptances_processed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TooFastDan\Documents\MD_PhD Application\Python Analysis\SDN acceptances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABB59FE-C1CF-44DA-826E-DF679487BA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B4EBAD-632A-48F1-831D-1A956F4DB4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6075" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="567">
   <si>
     <t>schools</t>
   </si>
@@ -43,7 +43,7 @@
     <t>percent</t>
   </si>
   <si>
-    <t>University of Texas at San Antonio</t>
+    <t>UT San Antonio</t>
   </si>
   <si>
     <t>University of Virginia</t>
@@ -76,19 +76,19 @@
     <t>Medical University of South Carolina</t>
   </si>
   <si>
-    <t>Emory University</t>
-  </si>
-  <si>
-    <t>Northwestern University</t>
+    <t>Emory</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
   </si>
   <si>
     <t>University of Rochester</t>
   </si>
   <si>
-    <t>University of Southern California/Caltech</t>
-  </si>
-  <si>
-    <t>University of California - Irvine</t>
+    <t>USC-Caltech</t>
+  </si>
+  <si>
+    <t>UC Irvine</t>
   </si>
   <si>
     <t>Temple University</t>
@@ -106,10 +106,10 @@
     <t>University of Massachusetts</t>
   </si>
   <si>
-    <t>Weill Cornell/Tri-I</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M University</t>
+    <t>Weill Cornell Tri-I</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
   </si>
   <si>
     <t>Case Western Reserve University</t>
@@ -121,7 +121,7 @@
     <t>New York University</t>
   </si>
   <si>
-    <t>Pritzker School of Medicine - UChicago</t>
+    <t>University of Chicago</t>
   </si>
   <si>
     <t>Vanderbilt</t>
@@ -130,10 +130,10 @@
     <t>University of Miami</t>
   </si>
   <si>
-    <t>Sidney Kimmel Medical College - Thomas Jefferson University</t>
-  </si>
-  <si>
-    <t>University of Texas Medical Branch</t>
+    <t>Sidney Kimmel Medical College</t>
+  </si>
+  <si>
+    <t>UT Medical Branch</t>
   </si>
   <si>
     <t>Baylor</t>
@@ -142,10 +142,10 @@
     <t>Oregon Health &amp; Science University</t>
   </si>
   <si>
-    <t>Renaissance School of Medicine at Stony Brook University</t>
-  </si>
-  <si>
-    <t>State University of New York Upstate</t>
+    <t>Stony Brook</t>
+  </si>
+  <si>
+    <t>SUNY Upstate</t>
   </si>
   <si>
     <t>University of Washington</t>
@@ -154,7 +154,7 @@
     <t>University of Maryland</t>
   </si>
   <si>
-    <t>University of California - Los Angeles</t>
+    <t>UC Los Angeles</t>
   </si>
   <si>
     <t>University of Colorado</t>
@@ -163,7 +163,7 @@
     <t>University of Connecticut</t>
   </si>
   <si>
-    <t>Mount Sinai</t>
+    <t>Icahn Mt. Sinai</t>
   </si>
   <si>
     <t>Sanford</t>
@@ -175,7 +175,7 @@
     <t>University of North Carolina</t>
   </si>
   <si>
-    <t>University of Texas Southwestern</t>
+    <t>UT Southwestern</t>
   </si>
   <si>
     <t>Duke</t>
@@ -187,13 +187,13 @@
     <t>Columbia</t>
   </si>
   <si>
-    <t>University of California - San Francisco</t>
+    <t>UC San Francisco</t>
   </si>
   <si>
     <t>Harvard</t>
   </si>
   <si>
-    <t>Perelman School of Medicine</t>
+    <t>University of Pennsylvania</t>
   </si>
   <si>
     <t>Stanford</t>
@@ -202,7 +202,7 @@
     <t>Johns Hopkins</t>
   </si>
   <si>
-    <t>University of Illinois at Chicago</t>
+    <t>University of Illinois - Chicago</t>
   </si>
   <si>
     <t>Georgetown</t>
@@ -211,31 +211,16 @@
     <t>Virginia Commonwealth University</t>
   </si>
   <si>
-    <t>University of California - San Diego</t>
+    <t>UC San Diego</t>
   </si>
   <si>
     <t>Albert Einstein</t>
   </si>
   <si>
-    <t>Rutgers RWJMS/Princeton</t>
-  </si>
-  <si>
-    <t>University of Chicago</t>
-  </si>
-  <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>University of Pittsburgh â€“ Carnegie Mellon University</t>
-  </si>
-  <si>
-    <t>University of Iowa â€“ Carver</t>
-  </si>
-  <si>
-    <t>University of California Irvine</t>
-  </si>
-  <si>
-    <t>University of Arizona - Tucson</t>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>University of Arizona</t>
   </si>
   <si>
     <t>University of Nebraska Medical Center</t>
@@ -250,130 +235,40 @@
     <t>University of Kentucky</t>
   </si>
   <si>
-    <t>Weill Cornell Tri-I</t>
-  </si>
-  <si>
-    <t>Stony Brook University</t>
-  </si>
-  <si>
-    <t>SUNY Upstate</t>
-  </si>
-  <si>
-    <t>Vanderbilt University</t>
-  </si>
-  <si>
     <t>Tufts University</t>
   </si>
   <si>
-    <t>Mount Sinai - Icahn</t>
-  </si>
-  <si>
     <t>Hofstra/Northwell</t>
   </si>
   <si>
-    <t>University of California Los Angeles</t>
-  </si>
-  <si>
-    <t>University of Alabama-Birmingham</t>
-  </si>
-  <si>
     <t>Medical College of Wisconsin</t>
   </si>
   <si>
-    <t>Emory</t>
-  </si>
-  <si>
     <t>Indiana University</t>
   </si>
   <si>
     <t>Kaiser Permanente-Caltech</t>
   </si>
   <si>
-    <t>Johns Hopkins University</t>
-  </si>
-  <si>
     <t>Texas Tech University-Lubbock</t>
   </si>
   <si>
     <t>NIH Oxford/Cambridge</t>
   </si>
   <si>
-    <t>University of California San Francisco</t>
-  </si>
-  <si>
-    <t>Harvard/MIT</t>
-  </si>
-  <si>
-    <t>University of Pennsylvania</t>
-  </si>
-  <si>
-    <t>University of Wisconsin - Madison</t>
-  </si>
-  <si>
-    <t>University of California San Diego</t>
-  </si>
-  <si>
-    <t>University of Arizona - Phoenix</t>
-  </si>
-  <si>
-    <t>University of Texas - Houston/MD Anderson</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>UT San Antonio</t>
-  </si>
-  <si>
-    <t>Rutgers New Jersey Medical School</t>
-  </si>
-  <si>
-    <t>USC-Caltech</t>
+    <t>UT Houston</t>
   </si>
   <si>
     <t>University of Utah</t>
   </si>
   <si>
-    <t>USUHS</t>
-  </si>
-  <si>
-    <t>Stony Brook</t>
-  </si>
-  <si>
-    <t>Einstein</t>
-  </si>
-  <si>
-    <t>Virginia Commonwealth</t>
-  </si>
-  <si>
-    <t>University of Alabama - Birmingham</t>
-  </si>
-  <si>
-    <t>University of Illinois - Chicago</t>
-  </si>
-  <si>
-    <t>SKMC</t>
-  </si>
-  <si>
-    <t>Icahn Mt. Sinai</t>
+    <t>Uniformed Services University of the Health Sciences</t>
   </si>
   <si>
     <t>Medical College of Georgia</t>
   </si>
   <si>
-    <t>UT Houston/MD Anderson</t>
-  </si>
-  <si>
-    <t>Ohio State</t>
-  </si>
-  <si>
     <t>University of Kansas</t>
-  </si>
-  <si>
-    <t>OHSU</t>
-  </si>
-  <si>
-    <t>Rutgers Robert Wood Johnson</t>
   </si>
   <si>
     <t>CashewBestNut</t>
@@ -2234,16 +2129,17 @@
   <dimension ref="A1:G415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2274,16 +2170,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="D2" s="2">
         <v>44124</v>
       </c>
       <c r="E2" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2297,16 +2193,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="D3" s="2">
         <v>44124</v>
       </c>
       <c r="E3" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2320,16 +2216,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="D4" s="2">
         <v>44125</v>
       </c>
       <c r="E4" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -2343,16 +2239,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="D5" s="2">
         <v>44125</v>
       </c>
       <c r="E5" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -2366,16 +2262,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="D6" s="2">
         <v>44126</v>
       </c>
       <c r="E6" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2389,16 +2285,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="D7" s="2">
         <v>44131</v>
       </c>
       <c r="E7" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -2412,16 +2308,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="D8" s="2">
         <v>44138</v>
       </c>
       <c r="E8" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -2435,16 +2331,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="D9" s="2">
         <v>44141</v>
       </c>
       <c r="E9" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -2458,16 +2354,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="D10" s="2">
         <v>44141</v>
       </c>
       <c r="E10" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -2481,16 +2377,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="D11" s="2">
         <v>44141</v>
       </c>
       <c r="E11" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -2504,16 +2400,16 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="D12" s="2">
         <v>44141</v>
       </c>
       <c r="E12" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -2527,16 +2423,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="D13" s="2">
         <v>44141</v>
       </c>
       <c r="E13" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -2550,16 +2446,16 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="D14" s="2">
         <v>44141</v>
       </c>
       <c r="E14" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -2573,16 +2469,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="D15" s="2">
         <v>44142</v>
       </c>
       <c r="E15" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -2596,16 +2492,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="D16" s="2">
         <v>44148</v>
       </c>
       <c r="E16" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -2619,16 +2515,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="D17" s="2">
         <v>44148</v>
       </c>
       <c r="E17" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F17">
         <v>16</v>
@@ -2642,16 +2538,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="D18" s="2">
         <v>44153</v>
       </c>
       <c r="E18" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F18">
         <v>17</v>
@@ -2665,16 +2561,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="D19" s="2">
         <v>44154</v>
       </c>
       <c r="E19" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -2688,16 +2584,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="D20" s="2">
         <v>44156</v>
       </c>
       <c r="E20" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F20">
         <v>19</v>
@@ -2711,16 +2607,16 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="D21" s="2">
         <v>44156</v>
       </c>
       <c r="E21" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -2734,16 +2630,16 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="D22" s="2">
         <v>44158</v>
       </c>
       <c r="E22" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F22">
         <v>21</v>
@@ -2757,16 +2653,16 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="D23" s="2">
         <v>44165</v>
       </c>
       <c r="E23" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -2780,16 +2676,16 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="D24" s="2">
         <v>44165</v>
       </c>
       <c r="E24" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F24">
         <v>23</v>
@@ -2803,16 +2699,16 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="D25" s="2">
         <v>44165</v>
       </c>
       <c r="E25" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -2826,16 +2722,16 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="D26" s="2">
         <v>44166</v>
       </c>
       <c r="E26" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F26">
         <v>25</v>
@@ -2849,16 +2745,16 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="D27" s="2">
         <v>44166</v>
       </c>
       <c r="E27" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F27">
         <v>26</v>
@@ -2872,16 +2768,16 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="D28" s="2">
         <v>44168</v>
       </c>
       <c r="E28" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F28">
         <v>27</v>
@@ -2895,16 +2791,16 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="D29" s="2">
         <v>44169</v>
       </c>
       <c r="E29" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F29">
         <v>28</v>
@@ -2918,16 +2814,16 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="D30" s="2">
         <v>44169</v>
       </c>
       <c r="E30" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F30">
         <v>29</v>
@@ -2941,16 +2837,16 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="D31" s="2">
         <v>44169</v>
       </c>
       <c r="E31" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F31">
         <v>30</v>
@@ -2964,16 +2860,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="D32" s="2">
         <v>44172</v>
       </c>
       <c r="E32" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F32">
         <v>31</v>
@@ -2987,16 +2883,16 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="D33" s="2">
         <v>44173</v>
       </c>
       <c r="E33" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F33">
         <v>32</v>
@@ -3010,16 +2906,16 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="D34" s="2">
         <v>44173</v>
       </c>
       <c r="E34" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F34">
         <v>33</v>
@@ -3033,16 +2929,16 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="D35" s="2">
         <v>44174</v>
       </c>
       <c r="E35" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F35">
         <v>34</v>
@@ -3056,16 +2952,16 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="D36" s="2">
         <v>44174</v>
       </c>
       <c r="E36" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F36">
         <v>35</v>
@@ -3079,16 +2975,16 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="D37" s="2">
         <v>44175</v>
       </c>
       <c r="E37" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -3102,16 +2998,16 @@
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="D38" s="2">
         <v>44176</v>
       </c>
       <c r="E38" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F38">
         <v>37</v>
@@ -3125,16 +3021,16 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="D39" s="2">
         <v>44176</v>
       </c>
       <c r="E39" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F39">
         <v>38</v>
@@ -3148,16 +3044,16 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="D40" s="2">
         <v>44176</v>
       </c>
       <c r="E40" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F40">
         <v>39</v>
@@ -3171,16 +3067,16 @@
         <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="D41" s="2">
         <v>44176</v>
       </c>
       <c r="E41" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F41">
         <v>40</v>
@@ -3194,16 +3090,16 @@
         <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="D42" s="2">
         <v>44176</v>
       </c>
       <c r="E42" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F42">
         <v>41</v>
@@ -3217,16 +3113,16 @@
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="D43" s="2">
         <v>44176</v>
       </c>
       <c r="E43" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F43">
         <v>42</v>
@@ -3240,16 +3136,16 @@
         <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="D44" s="2">
         <v>44180</v>
       </c>
       <c r="E44" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F44">
         <v>43</v>
@@ -3263,16 +3159,16 @@
         <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="D45" s="2">
         <v>44180</v>
       </c>
       <c r="E45" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F45">
         <v>44</v>
@@ -3286,16 +3182,16 @@
         <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="D46" s="2">
         <v>44180</v>
       </c>
       <c r="E46" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F46">
         <v>45</v>
@@ -3309,16 +3205,16 @@
         <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="D47" s="2">
         <v>44182</v>
       </c>
       <c r="E47" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F47">
         <v>46</v>
@@ -3332,16 +3228,16 @@
         <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="D48" s="2">
         <v>44183</v>
       </c>
       <c r="E48" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F48">
         <v>47</v>
@@ -3355,16 +3251,16 @@
         <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="D49" s="2">
         <v>44183</v>
       </c>
       <c r="E49" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F49">
         <v>48</v>
@@ -3378,16 +3274,16 @@
         <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="D50" s="2">
         <v>44183</v>
       </c>
       <c r="E50" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F50">
         <v>49</v>
@@ -3401,16 +3297,16 @@
         <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="C51" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="D51" s="2">
         <v>44183</v>
       </c>
       <c r="E51" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -3424,16 +3320,16 @@
         <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C52" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="D52" s="2">
         <v>44183</v>
       </c>
       <c r="E52" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F52">
         <v>51</v>
@@ -3447,16 +3343,16 @@
         <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="D53" s="2">
         <v>44183</v>
       </c>
       <c r="E53" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F53">
         <v>52</v>
@@ -3470,16 +3366,16 @@
         <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="D54" s="2">
         <v>44183</v>
       </c>
       <c r="E54" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F54">
         <v>53</v>
@@ -3493,16 +3389,16 @@
         <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="C55" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="D55" s="2">
         <v>44183</v>
       </c>
       <c r="E55" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F55">
         <v>54</v>
@@ -3516,16 +3412,16 @@
         <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="D56" s="2">
         <v>44186</v>
       </c>
       <c r="E56" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F56">
         <v>55</v>
@@ -3539,16 +3435,16 @@
         <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="D57" s="2">
         <v>44186</v>
       </c>
       <c r="E57" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F57">
         <v>56</v>
@@ -3562,16 +3458,16 @@
         <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="C58" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="D58" s="2">
         <v>44186</v>
       </c>
       <c r="E58" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F58">
         <v>57</v>
@@ -3585,16 +3481,16 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="D59" s="2">
         <v>44187</v>
       </c>
       <c r="E59" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F59">
         <v>58</v>
@@ -3608,16 +3504,16 @@
         <v>36</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="D60" s="2">
         <v>44187</v>
       </c>
       <c r="E60" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F60">
         <v>59</v>
@@ -3631,16 +3527,16 @@
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="D61" s="2">
         <v>44188</v>
       </c>
       <c r="E61" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F61">
         <v>60</v>
@@ -3654,16 +3550,16 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="C62" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="D62" s="2">
         <v>44188</v>
       </c>
       <c r="E62" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F62">
         <v>61</v>
@@ -3677,16 +3573,16 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="D63" s="2">
         <v>44189</v>
       </c>
       <c r="E63" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F63">
         <v>62</v>
@@ -3700,16 +3596,16 @@
         <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="D64" s="2">
         <v>44202</v>
       </c>
       <c r="E64" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F64">
         <v>63</v>
@@ -3723,16 +3619,16 @@
         <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="D65" s="2">
         <v>44203</v>
       </c>
       <c r="E65" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F65">
         <v>64</v>
@@ -3746,16 +3642,16 @@
         <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="D66" s="2">
         <v>44203</v>
       </c>
       <c r="E66" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F66">
         <v>65</v>
@@ -3769,16 +3665,16 @@
         <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="D67" s="2">
         <v>44207</v>
       </c>
       <c r="E67" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F67">
         <v>66</v>
@@ -3792,16 +3688,16 @@
         <v>42</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C68" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="D68" s="2">
         <v>44207</v>
       </c>
       <c r="E68" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F68">
         <v>67</v>
@@ -3815,16 +3711,16 @@
         <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="D69" s="2">
         <v>44207</v>
       </c>
       <c r="E69" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F69">
         <v>68</v>
@@ -3838,16 +3734,16 @@
         <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C70" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="D70" s="2">
         <v>44208</v>
       </c>
       <c r="E70" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F70">
         <v>69</v>
@@ -3861,16 +3757,16 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C71" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="D71" s="2">
         <v>44209</v>
       </c>
       <c r="E71" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F71">
         <v>70</v>
@@ -3884,16 +3780,16 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="D72" s="2">
         <v>44210</v>
       </c>
       <c r="E72" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F72">
         <v>71</v>
@@ -3907,16 +3803,16 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="C73" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="D73" s="2">
         <v>44210</v>
       </c>
       <c r="E73" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F73">
         <v>72</v>
@@ -3930,16 +3826,16 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C74" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="D74" s="2">
         <v>44210</v>
       </c>
       <c r="E74" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F74">
         <v>73</v>
@@ -3953,16 +3849,16 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C75" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="D75" s="2">
         <v>44211</v>
       </c>
       <c r="E75" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F75">
         <v>74</v>
@@ -3976,16 +3872,16 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="C76" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="D76" s="2">
         <v>44217</v>
       </c>
       <c r="E76" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F76">
         <v>75</v>
@@ -3999,16 +3895,16 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="D77" s="2">
         <v>44217</v>
       </c>
       <c r="E77" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F77">
         <v>76</v>
@@ -4022,16 +3918,16 @@
         <v>44</v>
       </c>
       <c r="B78" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C78" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="D78" s="2">
         <v>44218</v>
       </c>
       <c r="E78" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F78">
         <v>77</v>
@@ -4045,16 +3941,16 @@
         <v>44</v>
       </c>
       <c r="B79" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C79" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="D79" s="2">
         <v>44218</v>
       </c>
       <c r="E79" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F79">
         <v>78</v>
@@ -4068,16 +3964,16 @@
         <v>18</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="C80" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="D80" s="2">
         <v>44220</v>
       </c>
       <c r="E80" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F80">
         <v>79</v>
@@ -4091,16 +3987,16 @@
         <v>18</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C81" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="D81" s="2">
         <v>44220</v>
       </c>
       <c r="E81" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F81">
         <v>80</v>
@@ -4114,16 +4010,16 @@
         <v>24</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="C82" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="D82" s="2">
         <v>44223</v>
       </c>
       <c r="E82" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F82">
         <v>81</v>
@@ -4137,16 +4033,16 @@
         <v>45</v>
       </c>
       <c r="B83" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C83" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="D83" s="2">
         <v>44223</v>
       </c>
       <c r="E83" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F83">
         <v>82</v>
@@ -4160,16 +4056,16 @@
         <v>46</v>
       </c>
       <c r="B84" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C84" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="D84" s="2">
         <v>44224</v>
       </c>
       <c r="E84" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F84">
         <v>83</v>
@@ -4183,16 +4079,16 @@
         <v>30</v>
       </c>
       <c r="B85" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C85" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="D85" s="2">
         <v>44224</v>
       </c>
       <c r="E85" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F85">
         <v>84</v>
@@ -4206,16 +4102,16 @@
         <v>30</v>
       </c>
       <c r="B86" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C86" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="D86" s="2">
         <v>44225</v>
       </c>
       <c r="E86" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F86">
         <v>85</v>
@@ -4229,16 +4125,16 @@
         <v>42</v>
       </c>
       <c r="B87" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="D87" s="2">
         <v>44228</v>
       </c>
       <c r="E87" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F87">
         <v>86</v>
@@ -4252,16 +4148,16 @@
         <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C88" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="D88" s="2">
         <v>44228</v>
       </c>
       <c r="E88" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F88">
         <v>87</v>
@@ -4275,16 +4171,16 @@
         <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="D89" s="2">
         <v>44228</v>
       </c>
       <c r="E89" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F89">
         <v>88</v>
@@ -4298,16 +4194,16 @@
         <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C90" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="D90" s="2">
         <v>44228</v>
       </c>
       <c r="E90" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F90">
         <v>89</v>
@@ -4321,16 +4217,16 @@
         <v>42</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C91" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="D91" s="2">
         <v>44228</v>
       </c>
       <c r="E91" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F91">
         <v>90</v>
@@ -4344,16 +4240,16 @@
         <v>48</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="C92" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="D92" s="2">
         <v>44228</v>
       </c>
       <c r="E92" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F92">
         <v>91</v>
@@ -4367,16 +4263,16 @@
         <v>42</v>
       </c>
       <c r="B93" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C93" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="D93" s="2">
         <v>44228</v>
       </c>
       <c r="E93" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F93">
         <v>92</v>
@@ -4390,16 +4286,16 @@
         <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="C94" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="D94" s="2">
         <v>44229</v>
       </c>
       <c r="E94" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F94">
         <v>93</v>
@@ -4413,16 +4309,16 @@
         <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="C95" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="D95" s="2">
         <v>44229</v>
       </c>
       <c r="E95" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F95">
         <v>94</v>
@@ -4436,16 +4332,16 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C96" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="D96" s="2">
         <v>44231</v>
       </c>
       <c r="E96" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F96">
         <v>95</v>
@@ -4459,16 +4355,16 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="C97" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="D97" s="2">
         <v>44231</v>
       </c>
       <c r="E97" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F97">
         <v>96</v>
@@ -4482,16 +4378,16 @@
         <v>43</v>
       </c>
       <c r="B98" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C98" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="D98" s="2">
         <v>44231</v>
       </c>
       <c r="E98" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F98">
         <v>97</v>
@@ -4505,16 +4401,16 @@
         <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="C99" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="D99" s="2">
         <v>44232</v>
       </c>
       <c r="E99" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F99">
         <v>98</v>
@@ -4528,16 +4424,16 @@
         <v>49</v>
       </c>
       <c r="B100" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C100" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="D100" s="2">
         <v>44233</v>
       </c>
       <c r="E100" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F100">
         <v>99</v>
@@ -4551,16 +4447,16 @@
         <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="C101" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="D101" s="2">
         <v>44235</v>
       </c>
       <c r="E101" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F101">
         <v>100</v>
@@ -4574,16 +4470,16 @@
         <v>50</v>
       </c>
       <c r="B102" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="C102" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="D102" s="2">
         <v>44236</v>
       </c>
       <c r="E102" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F102">
         <v>101</v>
@@ -4597,16 +4493,16 @@
         <v>50</v>
       </c>
       <c r="B103" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C103" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="D103" s="2">
         <v>44236</v>
       </c>
       <c r="E103" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F103">
         <v>102</v>
@@ -4620,16 +4516,16 @@
         <v>14</v>
       </c>
       <c r="B104" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C104" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="D104" s="2">
         <v>44236</v>
       </c>
       <c r="E104" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F104">
         <v>103</v>
@@ -4643,16 +4539,16 @@
         <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C105" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="D105" s="2">
         <v>44236</v>
       </c>
       <c r="E105" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F105">
         <v>104</v>
@@ -4666,16 +4562,16 @@
         <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C106" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="D106" s="2">
         <v>44238</v>
       </c>
       <c r="E106" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F106">
         <v>105</v>
@@ -4689,16 +4585,16 @@
         <v>27</v>
       </c>
       <c r="B107" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="C107" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="D107" s="2">
         <v>44239</v>
       </c>
       <c r="E107" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F107">
         <v>106</v>
@@ -4712,16 +4608,16 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C108" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="D108" s="2">
         <v>44241</v>
       </c>
       <c r="E108" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F108">
         <v>107</v>
@@ -4735,16 +4631,16 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="D109" s="2">
         <v>44241</v>
       </c>
       <c r="E109" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F109">
         <v>108</v>
@@ -4758,16 +4654,16 @@
         <v>51</v>
       </c>
       <c r="B110" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="C110" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="D110" s="2">
         <v>44244</v>
       </c>
       <c r="E110" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F110">
         <v>109</v>
@@ -4781,16 +4677,16 @@
         <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="C111" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="D111" s="2">
         <v>44245</v>
       </c>
       <c r="E111" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F111">
         <v>110</v>
@@ -4804,16 +4700,16 @@
         <v>52</v>
       </c>
       <c r="B112" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C112" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="D112" s="2">
         <v>44250</v>
       </c>
       <c r="E112" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F112">
         <v>111</v>
@@ -4827,16 +4723,16 @@
         <v>52</v>
       </c>
       <c r="B113" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="C113" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="D113" s="2">
         <v>44250</v>
       </c>
       <c r="E113" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F113">
         <v>112</v>
@@ -4850,16 +4746,16 @@
         <v>52</v>
       </c>
       <c r="B114" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C114" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="D114" s="2">
         <v>44250</v>
       </c>
       <c r="E114" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F114">
         <v>113</v>
@@ -4873,16 +4769,16 @@
         <v>43</v>
       </c>
       <c r="B115" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="D115" s="2">
         <v>44250</v>
       </c>
       <c r="E115" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F115">
         <v>114</v>
@@ -4896,16 +4792,16 @@
         <v>53</v>
       </c>
       <c r="B116" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="C116" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="D116" s="2">
         <v>44251</v>
       </c>
       <c r="E116" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F116">
         <v>115</v>
@@ -4919,16 +4815,16 @@
         <v>53</v>
       </c>
       <c r="B117" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="C117" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="D117" s="2">
         <v>44251</v>
       </c>
       <c r="E117" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F117">
         <v>116</v>
@@ -4942,16 +4838,16 @@
         <v>53</v>
       </c>
       <c r="B118" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="D118" s="2">
         <v>44251</v>
       </c>
       <c r="E118" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F118">
         <v>117</v>
@@ -4965,16 +4861,16 @@
         <v>54</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C119" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="D119" s="2">
         <v>44251</v>
       </c>
       <c r="E119" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F119">
         <v>118</v>
@@ -4988,16 +4884,16 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C120" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="D120" s="2">
         <v>44251</v>
       </c>
       <c r="E120" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F120">
         <v>119</v>
@@ -5011,16 +4907,16 @@
         <v>54</v>
       </c>
       <c r="B121" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="C121" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="D121" s="2">
         <v>44251</v>
       </c>
       <c r="E121" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F121">
         <v>120</v>
@@ -5034,16 +4930,16 @@
         <v>55</v>
       </c>
       <c r="B122" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C122" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="D122" s="2">
         <v>44252</v>
       </c>
       <c r="E122" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F122">
         <v>121</v>
@@ -5057,16 +4953,16 @@
         <v>31</v>
       </c>
       <c r="B123" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="C123" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="D123" s="2">
         <v>44253</v>
       </c>
       <c r="E123" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F123">
         <v>122</v>
@@ -5080,16 +4976,16 @@
         <v>55</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C124" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="D124" s="2">
         <v>44253</v>
       </c>
       <c r="E124" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F124">
         <v>123</v>
@@ -5103,16 +4999,16 @@
         <v>56</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C125" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="D125" s="2">
         <v>44257</v>
       </c>
       <c r="E125" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F125">
         <v>124</v>
@@ -5126,16 +5022,16 @@
         <v>56</v>
       </c>
       <c r="B126" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="C126" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="D126" s="2">
         <v>44257</v>
       </c>
       <c r="E126" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F126">
         <v>125</v>
@@ -5149,16 +5045,16 @@
         <v>56</v>
       </c>
       <c r="B127" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C127" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="D127" s="2">
         <v>44257</v>
       </c>
       <c r="E127" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F127">
         <v>126</v>
@@ -5172,16 +5068,16 @@
         <v>57</v>
       </c>
       <c r="B128" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C128" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="D128" s="2">
         <v>44258</v>
       </c>
       <c r="E128" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F128">
         <v>127</v>
@@ -5195,16 +5091,16 @@
         <v>18</v>
       </c>
       <c r="B129" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="C129" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="D129" s="2">
         <v>44260</v>
       </c>
       <c r="E129" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F129">
         <v>128</v>
@@ -5218,16 +5114,16 @@
         <v>58</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C130" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="D130" s="2">
         <v>44263</v>
       </c>
       <c r="E130" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F130">
         <v>129</v>
@@ -5241,16 +5137,16 @@
         <v>59</v>
       </c>
       <c r="B131" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C131" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="D131" s="2">
         <v>44264</v>
       </c>
       <c r="E131" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F131">
         <v>130</v>
@@ -5264,16 +5160,16 @@
         <v>60</v>
       </c>
       <c r="B132" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="D132" s="2">
         <v>44267</v>
       </c>
       <c r="E132" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F132">
         <v>131</v>
@@ -5287,16 +5183,16 @@
         <v>61</v>
       </c>
       <c r="B133" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="D133" s="2">
         <v>44270</v>
       </c>
       <c r="E133" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F133">
         <v>132</v>
@@ -5310,16 +5206,16 @@
         <v>58</v>
       </c>
       <c r="B134" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C134" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="D134" s="2">
         <v>44273</v>
       </c>
       <c r="E134" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F134">
         <v>133</v>
@@ -5333,16 +5229,16 @@
         <v>45</v>
       </c>
       <c r="B135" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="D135" s="2">
         <v>44301</v>
       </c>
       <c r="E135" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F135">
         <v>134</v>
@@ -5356,16 +5252,16 @@
         <v>58</v>
       </c>
       <c r="B136" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C136" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="D136" s="2">
         <v>44312</v>
       </c>
       <c r="E136" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F136">
         <v>135</v>
@@ -5379,16 +5275,16 @@
         <v>62</v>
       </c>
       <c r="B137" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="D137" s="2">
         <v>44312</v>
       </c>
       <c r="E137" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F137">
         <v>136</v>
@@ -5402,16 +5298,16 @@
         <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="D138" s="2">
         <v>44313</v>
       </c>
       <c r="E138" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F138">
         <v>137</v>
@@ -5425,16 +5321,16 @@
         <v>63</v>
       </c>
       <c r="B139" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C139" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="D139" s="2">
         <v>44314</v>
       </c>
       <c r="E139" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F139">
         <v>138</v>
@@ -5448,16 +5344,16 @@
         <v>64</v>
       </c>
       <c r="B140" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C140" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="D140" s="2">
         <v>44315</v>
       </c>
       <c r="E140" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F140">
         <v>139</v>
@@ -5471,16 +5367,16 @@
         <v>49</v>
       </c>
       <c r="B141" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="C141" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="D141" s="2">
         <v>44316</v>
       </c>
       <c r="E141" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F141">
         <v>140</v>
@@ -5494,16 +5390,16 @@
         <v>33</v>
       </c>
       <c r="B142" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C142" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="D142" s="2">
         <v>44319</v>
       </c>
       <c r="E142" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F142">
         <v>141</v>
@@ -5517,16 +5413,16 @@
         <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C143" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="D143" s="2">
         <v>44319</v>
       </c>
       <c r="E143" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F143">
         <v>142</v>
@@ -5540,16 +5436,16 @@
         <v>25</v>
       </c>
       <c r="B144" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="C144" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="D144" s="2">
         <v>44319</v>
       </c>
       <c r="E144" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F144">
         <v>143</v>
@@ -5563,16 +5459,16 @@
         <v>31</v>
       </c>
       <c r="B145" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="C145" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="D145" s="2">
         <v>44320</v>
       </c>
       <c r="E145" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F145">
         <v>144</v>
@@ -5586,16 +5482,16 @@
         <v>53</v>
       </c>
       <c r="B146" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="C146" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="D146" s="2">
         <v>44320</v>
       </c>
       <c r="E146" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F146">
         <v>145</v>
@@ -5609,13 +5505,13 @@
         <v>59</v>
       </c>
       <c r="B147" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C147" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="E147" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F147">
         <v>146</v>
@@ -5629,13 +5525,13 @@
         <v>59</v>
       </c>
       <c r="B148" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="C148" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="E148" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F148">
         <v>147</v>
@@ -5649,13 +5545,13 @@
         <v>65</v>
       </c>
       <c r="B149" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="C149" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="E149" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F149">
         <v>148</v>
@@ -5669,13 +5565,13 @@
         <v>65</v>
       </c>
       <c r="B150" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="C150" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="E150" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="F150">
         <v>149</v>
@@ -5689,16 +5585,16 @@
         <v>62</v>
       </c>
       <c r="B151" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="C151" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="D151" s="2">
         <v>43753</v>
       </c>
       <c r="E151" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -5709,19 +5605,19 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B152" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C152" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="D152" s="2">
         <v>43753</v>
       </c>
       <c r="E152" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F152">
         <v>2</v>
@@ -5735,16 +5631,16 @@
         <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="C153" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="D153" s="2">
         <v>43753</v>
       </c>
       <c r="E153" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F153">
         <v>3</v>
@@ -5758,16 +5654,16 @@
         <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="C154" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="D154" s="2">
         <v>43753</v>
       </c>
       <c r="E154" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F154">
         <v>4</v>
@@ -5778,19 +5674,19 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B155" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="C155" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="D155" s="2">
         <v>43753</v>
       </c>
       <c r="E155" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F155">
         <v>5</v>
@@ -5804,16 +5700,16 @@
         <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="C156" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="D156" s="2">
         <v>43754</v>
       </c>
       <c r="E156" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F156">
         <v>6</v>
@@ -5824,19 +5720,19 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C157" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="D157" s="2">
         <v>43755</v>
       </c>
       <c r="E157" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F157">
         <v>7</v>
@@ -5847,19 +5743,19 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B158" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="C158" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="D158" s="2">
         <v>43758</v>
       </c>
       <c r="E158" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F158">
         <v>8</v>
@@ -5873,16 +5769,16 @@
         <v>46</v>
       </c>
       <c r="B159" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="C159" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="D159" s="2">
         <v>43759</v>
       </c>
       <c r="E159" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F159">
         <v>9</v>
@@ -5893,19 +5789,19 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="C160" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="D160" s="2">
         <v>43762</v>
       </c>
       <c r="E160" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F160">
         <v>10</v>
@@ -5916,19 +5812,19 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B161" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C161" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="D161" s="2">
         <v>43768</v>
       </c>
       <c r="E161" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F161">
         <v>11</v>
@@ -5939,19 +5835,19 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B162" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="C162" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="D162" s="2">
         <v>43768</v>
       </c>
       <c r="E162" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F162">
         <v>12</v>
@@ -5965,16 +5861,16 @@
         <v>32</v>
       </c>
       <c r="B163" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="C163" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="D163" s="2">
         <v>43770</v>
       </c>
       <c r="E163" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F163">
         <v>13</v>
@@ -5988,16 +5884,16 @@
         <v>32</v>
       </c>
       <c r="B164" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C164" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="D164" s="2">
         <v>43770</v>
       </c>
       <c r="E164" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F164">
         <v>14</v>
@@ -6011,16 +5907,16 @@
         <v>32</v>
       </c>
       <c r="B165" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="C165" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="D165" s="2">
         <v>43770</v>
       </c>
       <c r="E165" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F165">
         <v>15</v>
@@ -6031,19 +5927,19 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="B166" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C166" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="D166" s="2">
         <v>43774</v>
       </c>
       <c r="E166" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F166">
         <v>16</v>
@@ -6054,19 +5950,19 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="B167" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="C167" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="D167" s="2">
         <v>43774</v>
       </c>
       <c r="E167" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F167">
         <v>17</v>
@@ -6080,16 +5976,16 @@
         <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="C168" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="D168" s="2">
         <v>43776</v>
       </c>
       <c r="E168" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F168">
         <v>18</v>
@@ -6103,16 +5999,16 @@
         <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="C169" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="D169" s="2">
         <v>43777</v>
       </c>
       <c r="E169" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F169">
         <v>19</v>
@@ -6123,19 +6019,19 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="B170" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="C170" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="D170" s="2">
         <v>43783</v>
       </c>
       <c r="E170" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F170">
         <v>20</v>
@@ -6149,16 +6045,16 @@
         <v>27</v>
       </c>
       <c r="B171" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C171" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="D171" s="2">
         <v>43784</v>
       </c>
       <c r="E171" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F171">
         <v>21</v>
@@ -6172,16 +6068,16 @@
         <v>15</v>
       </c>
       <c r="B172" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="C172" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="D172" s="2">
         <v>43784</v>
       </c>
       <c r="E172" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F172">
         <v>22</v>
@@ -6192,19 +6088,19 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B173" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C173" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="D173" s="2">
         <v>43789</v>
       </c>
       <c r="E173" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F173">
         <v>23</v>
@@ -6215,19 +6111,19 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B174" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="C174" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="D174" s="2">
         <v>43789</v>
       </c>
       <c r="E174" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F174">
         <v>24</v>
@@ -6241,16 +6137,16 @@
         <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="C175" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="D175" s="2">
         <v>43790</v>
       </c>
       <c r="E175" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F175">
         <v>25</v>
@@ -6261,19 +6157,19 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B176" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="C176" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="D176" s="2">
         <v>43791</v>
       </c>
       <c r="E176" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F176">
         <v>26</v>
@@ -6284,19 +6180,19 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B177" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="C177" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="D177" s="2">
         <v>43794</v>
       </c>
       <c r="E177" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F177">
         <v>27</v>
@@ -6310,16 +6206,16 @@
         <v>62</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="C178" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="D178" s="2">
         <v>43795</v>
       </c>
       <c r="E178" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F178">
         <v>28</v>
@@ -6330,19 +6226,19 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B179" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="C179" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="D179" s="2">
         <v>43795</v>
       </c>
       <c r="E179" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F179">
         <v>29</v>
@@ -6356,16 +6252,16 @@
         <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="C180" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="D180" s="2">
         <v>43796</v>
       </c>
       <c r="E180" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F180">
         <v>30</v>
@@ -6379,16 +6275,16 @@
         <v>32</v>
       </c>
       <c r="B181" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="C181" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="D181" s="2">
         <v>43802</v>
       </c>
       <c r="E181" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F181">
         <v>31</v>
@@ -6402,16 +6298,16 @@
         <v>32</v>
       </c>
       <c r="B182" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C182" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="D182" s="2">
         <v>43802</v>
       </c>
       <c r="E182" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F182">
         <v>32</v>
@@ -6425,16 +6321,16 @@
         <v>62</v>
       </c>
       <c r="B183" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="C183" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="D183" s="2">
         <v>43802</v>
       </c>
       <c r="E183" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F183">
         <v>33</v>
@@ -6445,19 +6341,19 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B184" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C184" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="D184" s="2">
         <v>43804</v>
       </c>
       <c r="E184" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F184">
         <v>34</v>
@@ -6471,16 +6367,16 @@
         <v>15</v>
       </c>
       <c r="B185" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C185" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="D185" s="2">
         <v>43805</v>
       </c>
       <c r="E185" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F185">
         <v>35</v>
@@ -6494,16 +6390,16 @@
         <v>26</v>
       </c>
       <c r="B186" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="C186" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="D186" s="2">
         <v>43808</v>
       </c>
       <c r="E186" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F186">
         <v>36</v>
@@ -6517,16 +6413,16 @@
         <v>35</v>
       </c>
       <c r="B187" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="C187" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="D187" s="2">
         <v>43808</v>
       </c>
       <c r="E187" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F187">
         <v>37</v>
@@ -6540,16 +6436,16 @@
         <v>23</v>
       </c>
       <c r="B188" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="C188" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="D188" s="2">
         <v>43809</v>
       </c>
       <c r="E188" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F188">
         <v>38</v>
@@ -6563,16 +6459,16 @@
         <v>25</v>
       </c>
       <c r="B189" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C189" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="D189" s="2">
         <v>43810</v>
       </c>
       <c r="E189" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F189">
         <v>39</v>
@@ -6583,19 +6479,19 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B190" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C190" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="D190" s="2">
         <v>43811</v>
       </c>
       <c r="E190" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F190">
         <v>40</v>
@@ -6606,19 +6502,19 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B191" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C191" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="D191" s="2">
         <v>43811</v>
       </c>
       <c r="E191" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F191">
         <v>41</v>
@@ -6629,19 +6525,19 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B192" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="C192" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="D192" s="2">
         <v>43811</v>
       </c>
       <c r="E192" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F192">
         <v>42</v>
@@ -6655,16 +6551,16 @@
         <v>27</v>
       </c>
       <c r="B193" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="C193" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="D193" s="2">
         <v>43812</v>
       </c>
       <c r="E193" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F193">
         <v>43</v>
@@ -6675,19 +6571,19 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B194" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="C194" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="D194" s="2">
         <v>43816</v>
       </c>
       <c r="E194" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F194">
         <v>44</v>
@@ -6701,16 +6597,16 @@
         <v>26</v>
       </c>
       <c r="B195" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="C195" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="D195" s="2">
         <v>43816</v>
       </c>
       <c r="E195" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F195">
         <v>45</v>
@@ -6721,19 +6617,19 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="B196" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="C196" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="D196" s="2">
         <v>43816</v>
       </c>
       <c r="E196" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F196">
         <v>46</v>
@@ -6747,16 +6643,16 @@
         <v>60</v>
       </c>
       <c r="B197" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="C197" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="D197" s="2">
         <v>43818</v>
       </c>
       <c r="E197" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F197">
         <v>47</v>
@@ -6767,19 +6663,19 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B198" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="C198" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="D198" s="2">
         <v>43819</v>
       </c>
       <c r="E198" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F198">
         <v>48</v>
@@ -6790,19 +6686,19 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B199" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="C199" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="D199" s="2">
         <v>43819</v>
       </c>
       <c r="E199" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F199">
         <v>49</v>
@@ -6813,19 +6709,19 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B200" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C200" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="D200" s="2">
         <v>43819</v>
       </c>
       <c r="E200" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F200">
         <v>50</v>
@@ -6836,19 +6732,19 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B201" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="C201" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="D201" s="2">
         <v>43832</v>
       </c>
       <c r="E201" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F201">
         <v>51</v>
@@ -6859,19 +6755,19 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B202" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="C202" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="D202" s="2">
         <v>43832</v>
       </c>
       <c r="E202" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F202">
         <v>52</v>
@@ -6885,16 +6781,16 @@
         <v>15</v>
       </c>
       <c r="B203" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="C203" t="s">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="D203" s="2">
         <v>43840</v>
       </c>
       <c r="E203" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F203">
         <v>53</v>
@@ -6905,19 +6801,19 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B204" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C204" t="s">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="D204" s="2">
         <v>43840</v>
       </c>
       <c r="E204" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F204">
         <v>54</v>
@@ -6928,19 +6824,19 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B205" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="C205" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="D205" s="2">
         <v>43843</v>
       </c>
       <c r="E205" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F205">
         <v>55</v>
@@ -6954,16 +6850,16 @@
         <v>11</v>
       </c>
       <c r="B206" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="C206" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="D206" s="2">
         <v>43844</v>
       </c>
       <c r="E206" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F206">
         <v>56</v>
@@ -6977,16 +6873,16 @@
         <v>16</v>
       </c>
       <c r="B207" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="C207" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="D207" s="2">
         <v>43844</v>
       </c>
       <c r="E207" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F207">
         <v>57</v>
@@ -7000,16 +6896,16 @@
         <v>58</v>
       </c>
       <c r="B208" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C208" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="D208" s="2">
         <v>43853</v>
       </c>
       <c r="E208" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F208">
         <v>58</v>
@@ -7020,19 +6916,19 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B209" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="C209" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
       <c r="D209" s="2">
         <v>43853</v>
       </c>
       <c r="E209" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F209">
         <v>59</v>
@@ -7043,19 +6939,19 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B210" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C210" t="s">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="D210" s="2">
         <v>43854</v>
       </c>
       <c r="E210" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F210">
         <v>60</v>
@@ -7066,19 +6962,19 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B211" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="C211" t="s">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="D211" s="2">
         <v>43854</v>
       </c>
       <c r="E211" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F211">
         <v>61</v>
@@ -7089,19 +6985,19 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="B212" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="C212" t="s">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="D212" s="2">
         <v>43857</v>
       </c>
       <c r="E212" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F212">
         <v>62</v>
@@ -7115,16 +7011,16 @@
         <v>62</v>
       </c>
       <c r="B213" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="C213" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="D213" s="2">
         <v>43859</v>
       </c>
       <c r="E213" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F213">
         <v>63</v>
@@ -7135,19 +7031,19 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B214" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="C214" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="D214" s="2">
         <v>43860</v>
       </c>
       <c r="E214" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F214">
         <v>64</v>
@@ -7161,16 +7057,16 @@
         <v>9</v>
       </c>
       <c r="B215" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="C215" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="D215" s="2">
         <v>43861</v>
       </c>
       <c r="E215" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F215">
         <v>65</v>
@@ -7181,19 +7077,19 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="B216" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="C216" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="D216" s="2">
         <v>43861</v>
       </c>
       <c r="E216" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F216">
         <v>66</v>
@@ -7207,16 +7103,16 @@
         <v>50</v>
       </c>
       <c r="B217" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="C217" t="s">
-        <v>469</v>
+        <v>434</v>
       </c>
       <c r="D217" s="2">
         <v>43865</v>
       </c>
       <c r="E217" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F217">
         <v>67</v>
@@ -7230,16 +7126,16 @@
         <v>51</v>
       </c>
       <c r="B218" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="C218" t="s">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="D218" s="2">
         <v>43865</v>
       </c>
       <c r="E218" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F218">
         <v>68</v>
@@ -7253,16 +7149,16 @@
         <v>52</v>
       </c>
       <c r="B219" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="C219" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="D219" s="2">
         <v>43866</v>
       </c>
       <c r="E219" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F219">
         <v>69</v>
@@ -7276,16 +7172,16 @@
         <v>52</v>
       </c>
       <c r="B220" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C220" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="D220" s="2">
         <v>43866</v>
       </c>
       <c r="E220" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F220">
         <v>70</v>
@@ -7299,16 +7195,16 @@
         <v>8</v>
       </c>
       <c r="B221" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="C221" t="s">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="D221" s="2">
         <v>43867</v>
       </c>
       <c r="E221" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F221">
         <v>71</v>
@@ -7319,19 +7215,19 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B222" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="C222" t="s">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="D222" s="2">
         <v>43867</v>
       </c>
       <c r="E222" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F222">
         <v>72</v>
@@ -7345,16 +7241,16 @@
         <v>15</v>
       </c>
       <c r="B223" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="C223" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="D223" s="2">
         <v>43868</v>
       </c>
       <c r="E223" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F223">
         <v>73</v>
@@ -7365,19 +7261,19 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B224" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="C224" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="D224" s="2">
         <v>43871</v>
       </c>
       <c r="E224" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F224">
         <v>74</v>
@@ -7388,19 +7284,19 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B225" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C225" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="D225" s="2">
         <v>43872</v>
       </c>
       <c r="E225" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F225">
         <v>75</v>
@@ -7411,19 +7307,19 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B226" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C226" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="D226" s="2">
         <v>43872</v>
       </c>
       <c r="E226" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F226">
         <v>76</v>
@@ -7434,19 +7330,19 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B227" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="C227" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="D227" s="2">
         <v>43872</v>
       </c>
       <c r="E227" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F227">
         <v>77</v>
@@ -7457,19 +7353,19 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B228" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="C228" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="D228" s="2">
         <v>43873</v>
       </c>
       <c r="E228" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F228">
         <v>78</v>
@@ -7480,19 +7376,19 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B229" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="C229" t="s">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="D229" s="2">
         <v>43875</v>
       </c>
       <c r="E229" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F229">
         <v>79</v>
@@ -7506,16 +7402,16 @@
         <v>12</v>
       </c>
       <c r="B230" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C230" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="D230" s="2">
         <v>43875</v>
       </c>
       <c r="E230" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F230">
         <v>80</v>
@@ -7529,16 +7425,16 @@
         <v>38</v>
       </c>
       <c r="B231" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C231" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="D231" s="2">
         <v>43875</v>
       </c>
       <c r="E231" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F231">
         <v>81</v>
@@ -7552,16 +7448,16 @@
         <v>12</v>
       </c>
       <c r="B232" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="C232" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="D232" s="2">
         <v>43879</v>
       </c>
       <c r="E232" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F232">
         <v>82</v>
@@ -7572,19 +7468,19 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="B233" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C233" t="s">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="D233" s="2">
         <v>43881</v>
       </c>
       <c r="E233" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F233">
         <v>83</v>
@@ -7598,16 +7494,16 @@
         <v>54</v>
       </c>
       <c r="B234" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="C234" t="s">
-        <v>485</v>
+        <v>450</v>
       </c>
       <c r="D234" s="2">
         <v>43882</v>
       </c>
       <c r="E234" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F234">
         <v>84</v>
@@ -7621,16 +7517,16 @@
         <v>54</v>
       </c>
       <c r="B235" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="C235" t="s">
-        <v>486</v>
+        <v>451</v>
       </c>
       <c r="D235" s="2">
         <v>43882</v>
       </c>
       <c r="E235" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F235">
         <v>85</v>
@@ -7641,19 +7537,19 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B236" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C236" t="s">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="D236" s="2">
         <v>43886</v>
       </c>
       <c r="E236" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F236">
         <v>86</v>
@@ -7664,19 +7560,19 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B237" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="C237" t="s">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="D237" s="2">
         <v>43886</v>
       </c>
       <c r="E237" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F237">
         <v>87</v>
@@ -7690,16 +7586,16 @@
         <v>53</v>
       </c>
       <c r="B238" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C238" t="s">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="D238" s="2">
         <v>43888</v>
       </c>
       <c r="E238" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F238">
         <v>88</v>
@@ -7710,19 +7606,19 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B239" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C239" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="D239" s="2">
         <v>43889</v>
       </c>
       <c r="E239" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F239">
         <v>89</v>
@@ -7733,19 +7629,19 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B240" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="C240" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="D240" s="2">
         <v>43889</v>
       </c>
       <c r="E240" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F240">
         <v>90</v>
@@ -7756,19 +7652,19 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B241" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C241" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="D241" s="2">
         <v>43889</v>
       </c>
       <c r="E241" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F241">
         <v>91</v>
@@ -7779,19 +7675,19 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B242" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="C242" t="s">
-        <v>491</v>
+        <v>456</v>
       </c>
       <c r="D242" s="2">
         <v>43892</v>
       </c>
       <c r="E242" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F242">
         <v>92</v>
@@ -7802,19 +7698,19 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B243" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="C243" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="D243" s="2">
         <v>43892</v>
       </c>
       <c r="E243" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F243">
         <v>93</v>
@@ -7828,16 +7724,16 @@
         <v>58</v>
       </c>
       <c r="B244" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C244" t="s">
-        <v>493</v>
+        <v>458</v>
       </c>
       <c r="D244" s="2">
         <v>43892</v>
       </c>
       <c r="E244" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F244">
         <v>94</v>
@@ -7851,16 +7747,16 @@
         <v>64</v>
       </c>
       <c r="B245" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="C245" t="s">
-        <v>494</v>
+        <v>459</v>
       </c>
       <c r="D245" s="2">
         <v>43896</v>
       </c>
       <c r="E245" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F245">
         <v>95</v>
@@ -7871,19 +7767,19 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B246" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="C246" t="s">
-        <v>495</v>
+        <v>460</v>
       </c>
       <c r="D246" s="2">
         <v>43903</v>
       </c>
       <c r="E246" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F246">
         <v>96</v>
@@ -7897,16 +7793,16 @@
         <v>58</v>
       </c>
       <c r="B247" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C247" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
       <c r="D247" s="2">
         <v>43906</v>
       </c>
       <c r="E247" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F247">
         <v>97</v>
@@ -7920,16 +7816,16 @@
         <v>43</v>
       </c>
       <c r="B248" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="C248" t="s">
-        <v>497</v>
+        <v>462</v>
       </c>
       <c r="D248" s="2">
         <v>43921</v>
       </c>
       <c r="E248" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F248">
         <v>98</v>
@@ -7940,19 +7836,19 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B249" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="C249" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="D249" s="2">
         <v>43929</v>
       </c>
       <c r="E249" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F249">
         <v>99</v>
@@ -7966,16 +7862,16 @@
         <v>60</v>
       </c>
       <c r="B250" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="C250" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
       <c r="D250" s="2">
         <v>43949</v>
       </c>
       <c r="E250" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F250">
         <v>100</v>
@@ -7986,19 +7882,19 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B251" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C251" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="D251" s="2">
         <v>43950</v>
       </c>
       <c r="E251" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F251">
         <v>101</v>
@@ -8012,16 +7908,16 @@
         <v>52</v>
       </c>
       <c r="B252" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="C252" t="s">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="D252" s="2">
         <v>43955</v>
       </c>
       <c r="E252" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F252">
         <v>102</v>
@@ -8035,16 +7931,16 @@
         <v>64</v>
       </c>
       <c r="B253" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="C253" t="s">
-        <v>502</v>
+        <v>467</v>
       </c>
       <c r="D253" s="2">
         <v>43956</v>
       </c>
       <c r="E253" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F253">
         <v>103</v>
@@ -8055,19 +7951,19 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B254" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="C254" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="D254" s="2">
         <v>43957</v>
       </c>
       <c r="E254" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F254">
         <v>104</v>
@@ -8081,16 +7977,16 @@
         <v>16</v>
       </c>
       <c r="B255" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="C255" t="s">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="D255" s="2">
         <v>43962</v>
       </c>
       <c r="E255" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F255">
         <v>105</v>
@@ -8104,13 +8000,13 @@
         <v>38</v>
       </c>
       <c r="B256" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="C256" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="E256" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F256">
         <v>106</v>
@@ -8124,13 +8020,13 @@
         <v>38</v>
       </c>
       <c r="B257" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C257" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="E257" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F257">
         <v>107</v>
@@ -8141,16 +8037,16 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B258" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C258" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="E258" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F258">
         <v>108</v>
@@ -8161,16 +8057,16 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="B259" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C259" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="E259" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F259">
         <v>109</v>
@@ -8184,13 +8080,13 @@
         <v>60</v>
       </c>
       <c r="B260" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="C260" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="E260" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F260">
         <v>110</v>
@@ -8201,16 +8097,16 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B261" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="C261" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="E261" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F261">
         <v>111</v>
@@ -8224,13 +8120,13 @@
         <v>15</v>
       </c>
       <c r="B262" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C262" t="s">
-        <v>508</v>
+        <v>473</v>
       </c>
       <c r="E262" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F262">
         <v>112</v>
@@ -8241,19 +8137,19 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="B263" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="C263" t="s">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="D263" s="2">
         <v>43388</v>
       </c>
       <c r="E263" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F263">
         <v>1</v>
@@ -8264,19 +8160,19 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="B264" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="C264" t="s">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="D264" s="2">
         <v>43388</v>
       </c>
       <c r="E264" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F264">
         <v>2</v>
@@ -8290,16 +8186,16 @@
         <v>10</v>
       </c>
       <c r="B265" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="C265" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="D265" s="2">
         <v>43391</v>
       </c>
       <c r="E265" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F265">
         <v>3</v>
@@ -8310,19 +8206,19 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="B266" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="C266" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="D266" s="2">
         <v>43395</v>
       </c>
       <c r="E266" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F266">
         <v>4</v>
@@ -8333,19 +8229,19 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="B267" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="C267" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="D267" s="2">
         <v>43395</v>
       </c>
       <c r="E267" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F267">
         <v>5</v>
@@ -8359,16 +8255,16 @@
         <v>8</v>
       </c>
       <c r="B268" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="C268" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="D268" s="2">
         <v>43397</v>
       </c>
       <c r="E268" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F268">
         <v>6</v>
@@ -8382,16 +8278,16 @@
         <v>8</v>
       </c>
       <c r="B269" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="C269" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="D269" s="2">
         <v>43397</v>
       </c>
       <c r="E269" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F269">
         <v>7</v>
@@ -8402,19 +8298,19 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B270" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="C270" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="D270" s="2">
         <v>43400</v>
       </c>
       <c r="E270" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F270">
         <v>8</v>
@@ -8425,19 +8321,19 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B271" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="C271" t="s">
-        <v>515</v>
+        <v>480</v>
       </c>
       <c r="D271" s="2">
         <v>43401</v>
       </c>
       <c r="E271" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F271">
         <v>9</v>
@@ -8451,16 +8347,16 @@
         <v>9</v>
       </c>
       <c r="B272" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="C272" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
       <c r="D272" s="2">
         <v>43403</v>
       </c>
       <c r="E272" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F272">
         <v>10</v>
@@ -8471,19 +8367,19 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="B273" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="C273" t="s">
-        <v>517</v>
+        <v>482</v>
       </c>
       <c r="D273" s="2">
         <v>43408</v>
       </c>
       <c r="E273" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F273">
         <v>11</v>
@@ -8497,16 +8393,16 @@
         <v>27</v>
       </c>
       <c r="B274" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="C274" t="s">
-        <v>518</v>
+        <v>483</v>
       </c>
       <c r="D274" s="2">
         <v>43413</v>
       </c>
       <c r="E274" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F274">
         <v>12</v>
@@ -8520,16 +8416,16 @@
         <v>15</v>
       </c>
       <c r="B275" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="C275" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="D275" s="2">
         <v>43416</v>
       </c>
       <c r="E275" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F275">
         <v>13</v>
@@ -8543,16 +8439,16 @@
         <v>15</v>
       </c>
       <c r="B276" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="C276" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="D276" s="2">
         <v>43416</v>
       </c>
       <c r="E276" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F276">
         <v>14</v>
@@ -8566,16 +8462,16 @@
         <v>15</v>
       </c>
       <c r="B277" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="C277" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="D277" s="2">
         <v>43416</v>
       </c>
       <c r="E277" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F277">
         <v>15</v>
@@ -8586,19 +8482,19 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B278" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="C278" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="D278" s="2">
         <v>43417</v>
       </c>
       <c r="E278" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F278">
         <v>16</v>
@@ -8609,19 +8505,19 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="B279" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="C279" t="s">
-        <v>521</v>
+        <v>486</v>
       </c>
       <c r="D279" s="2">
         <v>43419</v>
       </c>
       <c r="E279" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F279">
         <v>17</v>
@@ -8632,19 +8528,19 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B280" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="C280" t="s">
-        <v>522</v>
+        <v>487</v>
       </c>
       <c r="D280" s="2">
         <v>43425</v>
       </c>
       <c r="E280" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F280">
         <v>18</v>
@@ -8655,19 +8551,19 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B281" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="C281" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="D281" s="2">
         <v>43430</v>
       </c>
       <c r="E281" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F281">
         <v>19</v>
@@ -8678,19 +8574,19 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B282" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="C282" t="s">
-        <v>523</v>
+        <v>488</v>
       </c>
       <c r="D282" s="2">
         <v>43433</v>
       </c>
       <c r="E282" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F282">
         <v>20</v>
@@ -8704,16 +8600,16 @@
         <v>26</v>
       </c>
       <c r="B283" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="C283" t="s">
-        <v>524</v>
+        <v>489</v>
       </c>
       <c r="D283" s="2">
         <v>43434</v>
       </c>
       <c r="E283" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F283">
         <v>21</v>
@@ -8727,16 +8623,16 @@
         <v>17</v>
       </c>
       <c r="B284" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="C284" t="s">
-        <v>525</v>
+        <v>490</v>
       </c>
       <c r="D284" s="2">
         <v>43436</v>
       </c>
       <c r="E284" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F284">
         <v>22</v>
@@ -8747,19 +8643,19 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="B285" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="C285" t="s">
-        <v>526</v>
+        <v>491</v>
       </c>
       <c r="D285" s="2">
         <v>43438</v>
       </c>
       <c r="E285" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F285">
         <v>23</v>
@@ -8773,16 +8669,16 @@
         <v>11</v>
       </c>
       <c r="B286" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="C286" t="s">
-        <v>527</v>
+        <v>492</v>
       </c>
       <c r="D286" s="2">
         <v>43439</v>
       </c>
       <c r="E286" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F286">
         <v>24</v>
@@ -8796,16 +8692,16 @@
         <v>34</v>
       </c>
       <c r="B287" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="C287" t="s">
-        <v>528</v>
+        <v>493</v>
       </c>
       <c r="D287" s="2">
         <v>43441</v>
       </c>
       <c r="E287" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F287">
         <v>25</v>
@@ -8816,19 +8712,19 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="B288" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="C288" t="s">
-        <v>529</v>
+        <v>494</v>
       </c>
       <c r="D288" s="2">
         <v>43441</v>
       </c>
       <c r="E288" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F288">
         <v>26</v>
@@ -8839,19 +8735,19 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="B289" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="C289" t="s">
-        <v>529</v>
+        <v>494</v>
       </c>
       <c r="D289" s="2">
         <v>43441</v>
       </c>
       <c r="E289" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F289">
         <v>27</v>
@@ -8862,19 +8758,19 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="B290" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="C290" t="s">
-        <v>530</v>
+        <v>495</v>
       </c>
       <c r="D290" s="2">
         <v>43441</v>
       </c>
       <c r="E290" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F290">
         <v>28</v>
@@ -8885,19 +8781,19 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B291" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="C291" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="D291" s="2">
         <v>43444</v>
       </c>
       <c r="E291" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F291">
         <v>29</v>
@@ -8908,19 +8804,19 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B292" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="C292" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="D292" s="2">
         <v>43444</v>
       </c>
       <c r="E292" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F292">
         <v>30</v>
@@ -8931,19 +8827,19 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B293" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="C293" t="s">
-        <v>531</v>
+        <v>496</v>
       </c>
       <c r="D293" s="2">
         <v>43444</v>
       </c>
       <c r="E293" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F293">
         <v>31</v>
@@ -8954,19 +8850,19 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B294" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="C294" t="s">
-        <v>532</v>
+        <v>497</v>
       </c>
       <c r="D294" s="2">
         <v>43444</v>
       </c>
       <c r="E294" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F294">
         <v>32</v>
@@ -8977,19 +8873,19 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B295" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C295" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="D295" s="2">
         <v>43444</v>
       </c>
       <c r="E295" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F295">
         <v>33</v>
@@ -9000,19 +8896,19 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B296" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="C296" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="D296" s="2">
         <v>43444</v>
       </c>
       <c r="E296" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F296">
         <v>34</v>
@@ -9023,19 +8919,19 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B297" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="C297" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="D297" s="2">
         <v>43444</v>
       </c>
       <c r="E297" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F297">
         <v>35</v>
@@ -9046,19 +8942,19 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="B298" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="C298" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="D298" s="2">
         <v>43444</v>
       </c>
       <c r="E298" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F298">
         <v>36</v>
@@ -9069,19 +8965,19 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="B299" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="C299" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="D299" s="2">
         <v>43444</v>
       </c>
       <c r="E299" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F299">
         <v>37</v>
@@ -9092,19 +8988,19 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B300" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="C300" t="s">
-        <v>533</v>
+        <v>498</v>
       </c>
       <c r="D300" s="2">
         <v>43445</v>
       </c>
       <c r="E300" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F300">
         <v>38</v>
@@ -9115,19 +9011,19 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B301" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="C301" t="s">
-        <v>533</v>
+        <v>498</v>
       </c>
       <c r="D301" s="2">
         <v>43445</v>
       </c>
       <c r="E301" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F301">
         <v>39</v>
@@ -9138,19 +9034,19 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B302" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="C302" t="s">
-        <v>533</v>
+        <v>498</v>
       </c>
       <c r="D302" s="2">
         <v>43445</v>
       </c>
       <c r="E302" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F302">
         <v>40</v>
@@ -9161,19 +9057,19 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="B303" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="C303" t="s">
-        <v>534</v>
+        <v>499</v>
       </c>
       <c r="D303" s="2">
         <v>43446</v>
       </c>
       <c r="E303" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F303">
         <v>41</v>
@@ -9184,19 +9080,19 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B304" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="C304" t="s">
-        <v>535</v>
+        <v>500</v>
       </c>
       <c r="D304" s="2">
         <v>43448</v>
       </c>
       <c r="E304" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F304">
         <v>42</v>
@@ -9207,19 +9103,19 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="B305" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="C305" t="s">
-        <v>535</v>
+        <v>500</v>
       </c>
       <c r="D305" s="2">
         <v>43448</v>
       </c>
       <c r="E305" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F305">
         <v>43</v>
@@ -9230,19 +9126,19 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="B306" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="C306" t="s">
-        <v>536</v>
+        <v>501</v>
       </c>
       <c r="D306" s="2">
         <v>43450</v>
       </c>
       <c r="E306" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F306">
         <v>44</v>
@@ -9253,19 +9149,19 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="B307" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="C307" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="D307" s="2">
         <v>43453</v>
       </c>
       <c r="E307" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F307">
         <v>45</v>
@@ -9279,16 +9175,16 @@
         <v>24</v>
       </c>
       <c r="B308" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="C308" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="D308" s="2">
         <v>43453</v>
       </c>
       <c r="E308" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F308">
         <v>46</v>
@@ -9302,16 +9198,16 @@
         <v>24</v>
       </c>
       <c r="B309" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="C309" t="s">
-        <v>537</v>
+        <v>502</v>
       </c>
       <c r="D309" s="2">
         <v>43454</v>
       </c>
       <c r="E309" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F309">
         <v>47</v>
@@ -9325,16 +9221,16 @@
         <v>24</v>
       </c>
       <c r="B310" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="C310" t="s">
-        <v>537</v>
+        <v>502</v>
       </c>
       <c r="D310" s="2">
         <v>43454</v>
       </c>
       <c r="E310" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F310">
         <v>48</v>
@@ -9348,16 +9244,16 @@
         <v>52</v>
       </c>
       <c r="B311" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="C311" t="s">
-        <v>538</v>
+        <v>503</v>
       </c>
       <c r="D311" s="2">
         <v>43456</v>
       </c>
       <c r="E311" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F311">
         <v>49</v>
@@ -9371,16 +9267,16 @@
         <v>52</v>
       </c>
       <c r="B312" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="C312" t="s">
-        <v>538</v>
+        <v>503</v>
       </c>
       <c r="D312" s="2">
         <v>43456</v>
       </c>
       <c r="E312" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F312">
         <v>50</v>
@@ -9394,16 +9290,16 @@
         <v>38</v>
       </c>
       <c r="B313" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="C313" t="s">
-        <v>539</v>
+        <v>504</v>
       </c>
       <c r="D313" s="2">
         <v>43468</v>
       </c>
       <c r="E313" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F313">
         <v>51</v>
@@ -9417,16 +9313,16 @@
         <v>35</v>
       </c>
       <c r="B314" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="C314" t="s">
-        <v>540</v>
+        <v>505</v>
       </c>
       <c r="D314" s="2">
         <v>43469</v>
       </c>
       <c r="E314" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F314">
         <v>52</v>
@@ -9440,16 +9336,16 @@
         <v>26</v>
       </c>
       <c r="B315" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="C315" t="s">
-        <v>541</v>
+        <v>506</v>
       </c>
       <c r="D315" s="2">
         <v>43472</v>
       </c>
       <c r="E315" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F315">
         <v>53</v>
@@ -9463,16 +9359,16 @@
         <v>25</v>
       </c>
       <c r="B316" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="C316" t="s">
-        <v>542</v>
+        <v>507</v>
       </c>
       <c r="D316" s="2">
         <v>43472</v>
       </c>
       <c r="E316" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F316">
         <v>54</v>
@@ -9486,16 +9382,16 @@
         <v>32</v>
       </c>
       <c r="B317" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="C317" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
       <c r="D317" s="2">
         <v>43473</v>
       </c>
       <c r="E317" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F317">
         <v>55</v>
@@ -9509,16 +9405,16 @@
         <v>32</v>
       </c>
       <c r="B318" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="C318" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
       <c r="D318" s="2">
         <v>43473</v>
       </c>
       <c r="E318" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F318">
         <v>56</v>
@@ -9532,16 +9428,16 @@
         <v>32</v>
       </c>
       <c r="B319" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="C319" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
       <c r="D319" s="2">
         <v>43473</v>
       </c>
       <c r="E319" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F319">
         <v>57</v>
@@ -9555,16 +9451,16 @@
         <v>32</v>
       </c>
       <c r="B320" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="C320" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
       <c r="D320" s="2">
         <v>43473</v>
       </c>
       <c r="E320" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F320">
         <v>58</v>
@@ -9578,16 +9474,16 @@
         <v>32</v>
       </c>
       <c r="B321" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C321" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
       <c r="D321" s="2">
         <v>43473</v>
       </c>
       <c r="E321" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F321">
         <v>59</v>
@@ -9601,16 +9497,16 @@
         <v>32</v>
       </c>
       <c r="B322" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="C322" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
       <c r="D322" s="2">
         <v>43473</v>
       </c>
       <c r="E322" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F322">
         <v>60</v>
@@ -9621,19 +9517,19 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B323" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="C323" t="s">
-        <v>544</v>
+        <v>509</v>
       </c>
       <c r="D323" s="2">
         <v>43474</v>
       </c>
       <c r="E323" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F323">
         <v>61</v>
@@ -9647,16 +9543,16 @@
         <v>11</v>
       </c>
       <c r="B324" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="C324" t="s">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="D324" s="2">
         <v>43476</v>
       </c>
       <c r="E324" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F324">
         <v>62</v>
@@ -9670,16 +9566,16 @@
         <v>11</v>
       </c>
       <c r="B325" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C325" t="s">
-        <v>546</v>
+        <v>511</v>
       </c>
       <c r="D325" s="2">
         <v>43476</v>
       </c>
       <c r="E325" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F325">
         <v>63</v>
@@ -9690,19 +9586,19 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="B326" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="C326" t="s">
-        <v>546</v>
+        <v>511</v>
       </c>
       <c r="D326" s="2">
         <v>43476</v>
       </c>
       <c r="E326" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F326">
         <v>64</v>
@@ -9716,16 +9612,16 @@
         <v>15</v>
       </c>
       <c r="B327" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="C327" t="s">
-        <v>547</v>
+        <v>512</v>
       </c>
       <c r="D327" s="2">
         <v>43477</v>
       </c>
       <c r="E327" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F327">
         <v>65</v>
@@ -9739,16 +9635,16 @@
         <v>15</v>
       </c>
       <c r="B328" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="C328" t="s">
-        <v>547</v>
+        <v>512</v>
       </c>
       <c r="D328" s="2">
         <v>43477</v>
       </c>
       <c r="E328" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F328">
         <v>66</v>
@@ -9762,16 +9658,16 @@
         <v>42</v>
       </c>
       <c r="B329" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C329" t="s">
-        <v>548</v>
+        <v>513</v>
       </c>
       <c r="D329" s="2">
         <v>43479</v>
       </c>
       <c r="E329" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F329">
         <v>67</v>
@@ -9785,16 +9681,16 @@
         <v>42</v>
       </c>
       <c r="B330" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="C330" t="s">
-        <v>548</v>
+        <v>513</v>
       </c>
       <c r="D330" s="2">
         <v>43479</v>
       </c>
       <c r="E330" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F330">
         <v>68</v>
@@ -9808,16 +9704,16 @@
         <v>42</v>
       </c>
       <c r="B331" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="C331" t="s">
-        <v>548</v>
+        <v>513</v>
       </c>
       <c r="D331" s="2">
         <v>43479</v>
       </c>
       <c r="E331" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F331">
         <v>69</v>
@@ -9828,19 +9724,19 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B332" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="C332" t="s">
-        <v>549</v>
+        <v>514</v>
       </c>
       <c r="D332" s="2">
         <v>43481</v>
       </c>
       <c r="E332" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F332">
         <v>70</v>
@@ -9854,16 +9750,16 @@
         <v>17</v>
       </c>
       <c r="B333" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="C333" t="s">
-        <v>550</v>
+        <v>515</v>
       </c>
       <c r="D333" s="2">
         <v>43482</v>
       </c>
       <c r="E333" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F333">
         <v>71</v>
@@ -9874,19 +9770,19 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="B334" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="C334" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
       <c r="D334" s="2">
         <v>43483</v>
       </c>
       <c r="E334" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F334">
         <v>72</v>
@@ -9897,19 +9793,19 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="B335" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="C335" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
       <c r="D335" s="2">
         <v>43483</v>
       </c>
       <c r="E335" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F335">
         <v>73</v>
@@ -9920,19 +9816,19 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="B336" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="C336" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
       <c r="D336" s="2">
         <v>43483</v>
       </c>
       <c r="E336" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F336">
         <v>74</v>
@@ -9943,19 +9839,19 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="B337" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="C337" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="D337" s="2">
         <v>43487</v>
       </c>
       <c r="E337" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F337">
         <v>75</v>
@@ -9969,16 +9865,16 @@
         <v>59</v>
       </c>
       <c r="B338" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="C338" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="D338" s="2">
         <v>43487</v>
       </c>
       <c r="E338" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F338">
         <v>76</v>
@@ -9992,16 +9888,16 @@
         <v>59</v>
       </c>
       <c r="B339" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C339" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="D339" s="2">
         <v>43487</v>
       </c>
       <c r="E339" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F339">
         <v>77</v>
@@ -10015,16 +9911,16 @@
         <v>30</v>
       </c>
       <c r="B340" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="C340" t="s">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="D340" s="2">
         <v>43489</v>
       </c>
       <c r="E340" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F340">
         <v>78</v>
@@ -10038,16 +9934,16 @@
         <v>15</v>
       </c>
       <c r="B341" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C341" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
       <c r="D341" s="2">
         <v>43490</v>
       </c>
       <c r="E341" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F341">
         <v>79</v>
@@ -10061,16 +9957,16 @@
         <v>42</v>
       </c>
       <c r="B342" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="C342" t="s">
-        <v>554</v>
+        <v>519</v>
       </c>
       <c r="D342" s="2">
         <v>43493</v>
       </c>
       <c r="E342" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F342">
         <v>80</v>
@@ -10081,19 +9977,19 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="B343" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="C343" t="s">
-        <v>555</v>
+        <v>520</v>
       </c>
       <c r="D343" s="2">
         <v>43494</v>
       </c>
       <c r="E343" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F343">
         <v>81</v>
@@ -10104,19 +10000,19 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="B344" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="C344" t="s">
-        <v>555</v>
+        <v>520</v>
       </c>
       <c r="D344" s="2">
         <v>43494</v>
       </c>
       <c r="E344" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F344">
         <v>82</v>
@@ -10130,16 +10026,16 @@
         <v>45</v>
       </c>
       <c r="B345" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="C345" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="D345" s="2">
         <v>43497</v>
       </c>
       <c r="E345" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F345">
         <v>83</v>
@@ -10150,19 +10046,19 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B346" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="C346" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="D346" s="2">
         <v>43497</v>
       </c>
       <c r="E346" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F346">
         <v>84</v>
@@ -10173,19 +10069,19 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="B347" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="C347" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="D347" s="2">
         <v>43497</v>
       </c>
       <c r="E347" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F347">
         <v>85</v>
@@ -10196,19 +10092,19 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="B348" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="C348" t="s">
-        <v>556</v>
+        <v>521</v>
       </c>
       <c r="D348" s="2">
         <v>43500</v>
       </c>
       <c r="E348" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F348">
         <v>86</v>
@@ -10219,19 +10115,19 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="B349" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="C349" t="s">
-        <v>556</v>
+        <v>521</v>
       </c>
       <c r="D349" s="2">
         <v>43500</v>
       </c>
       <c r="E349" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F349">
         <v>87</v>
@@ -10242,19 +10138,19 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="B350" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="C350" t="s">
-        <v>557</v>
+        <v>522</v>
       </c>
       <c r="D350" s="2">
         <v>43502</v>
       </c>
       <c r="E350" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F350">
         <v>88</v>
@@ -10268,16 +10164,16 @@
         <v>51</v>
       </c>
       <c r="B351" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="C351" t="s">
-        <v>558</v>
+        <v>523</v>
       </c>
       <c r="D351" s="2">
         <v>43502</v>
       </c>
       <c r="E351" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F351">
         <v>89</v>
@@ -10291,16 +10187,16 @@
         <v>51</v>
       </c>
       <c r="B352" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="C352" t="s">
-        <v>559</v>
+        <v>524</v>
       </c>
       <c r="D352" s="2">
         <v>43502</v>
       </c>
       <c r="E352" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F352">
         <v>90</v>
@@ -10314,16 +10210,16 @@
         <v>15</v>
       </c>
       <c r="B353" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C353" t="s">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="D353" s="2">
         <v>43503</v>
       </c>
       <c r="E353" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F353">
         <v>91</v>
@@ -10337,16 +10233,16 @@
         <v>15</v>
       </c>
       <c r="B354" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="C354" t="s">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="D354" s="2">
         <v>43503</v>
       </c>
       <c r="E354" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F354">
         <v>92</v>
@@ -10360,16 +10256,16 @@
         <v>15</v>
       </c>
       <c r="B355" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="C355" t="s">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="D355" s="2">
         <v>43503</v>
       </c>
       <c r="E355" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F355">
         <v>93</v>
@@ -10383,16 +10279,16 @@
         <v>11</v>
       </c>
       <c r="B356" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="C356" t="s">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="D356" s="2">
         <v>43504</v>
       </c>
       <c r="E356" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F356">
         <v>94</v>
@@ -10403,19 +10299,19 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="B357" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="C357" t="s">
-        <v>562</v>
+        <v>527</v>
       </c>
       <c r="D357" s="2">
         <v>43504</v>
       </c>
       <c r="E357" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F357">
         <v>95</v>
@@ -10426,19 +10322,19 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="B358" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C358" t="s">
-        <v>562</v>
+        <v>527</v>
       </c>
       <c r="D358" s="2">
         <v>43504</v>
       </c>
       <c r="E358" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F358">
         <v>96</v>
@@ -10449,19 +10345,19 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B359" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="C359" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="D359" s="2">
         <v>43505</v>
       </c>
       <c r="E359" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F359">
         <v>97</v>
@@ -10472,19 +10368,19 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="B360" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="C360" t="s">
-        <v>564</v>
+        <v>529</v>
       </c>
       <c r="D360" s="2">
         <v>43507</v>
       </c>
       <c r="E360" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F360">
         <v>98</v>
@@ -10495,19 +10391,19 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B361" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="C361" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="D361" s="2">
         <v>43507</v>
       </c>
       <c r="E361" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F361">
         <v>99</v>
@@ -10518,19 +10414,19 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="B362" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="C362" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="D362" s="2">
         <v>43508</v>
       </c>
       <c r="E362" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F362">
         <v>100</v>
@@ -10544,16 +10440,16 @@
         <v>24</v>
       </c>
       <c r="B363" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C363" t="s">
-        <v>567</v>
+        <v>532</v>
       </c>
       <c r="D363" s="2">
         <v>43509</v>
       </c>
       <c r="E363" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F363">
         <v>101</v>
@@ -10567,16 +10463,16 @@
         <v>52</v>
       </c>
       <c r="B364" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="C364" t="s">
-        <v>568</v>
+        <v>533</v>
       </c>
       <c r="D364" s="2">
         <v>43509</v>
       </c>
       <c r="E364" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F364">
         <v>102</v>
@@ -10590,16 +10486,16 @@
         <v>59</v>
       </c>
       <c r="B365" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="C365" t="s">
-        <v>569</v>
+        <v>534</v>
       </c>
       <c r="D365" s="2">
         <v>43509</v>
       </c>
       <c r="E365" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F365">
         <v>103</v>
@@ -10613,16 +10509,16 @@
         <v>59</v>
       </c>
       <c r="B366" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C366" t="s">
-        <v>570</v>
+        <v>535</v>
       </c>
       <c r="D366" s="2">
         <v>43509</v>
       </c>
       <c r="E366" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F366">
         <v>104</v>
@@ -10636,16 +10532,16 @@
         <v>59</v>
       </c>
       <c r="B367" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="C367" t="s">
-        <v>570</v>
+        <v>535</v>
       </c>
       <c r="D367" s="2">
         <v>43509</v>
       </c>
       <c r="E367" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F367">
         <v>105</v>
@@ -10656,19 +10552,19 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B368" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C368" t="s">
-        <v>567</v>
+        <v>532</v>
       </c>
       <c r="D368" s="2">
         <v>43509</v>
       </c>
       <c r="E368" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F368">
         <v>106</v>
@@ -10679,19 +10575,19 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B369" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="C369" t="s">
-        <v>571</v>
+        <v>536</v>
       </c>
       <c r="D369" s="2">
         <v>43510</v>
       </c>
       <c r="E369" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F369">
         <v>107</v>
@@ -10705,16 +10601,16 @@
         <v>34</v>
       </c>
       <c r="B370" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C370" t="s">
-        <v>572</v>
+        <v>537</v>
       </c>
       <c r="D370" s="2">
         <v>43511</v>
       </c>
       <c r="E370" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F370">
         <v>108</v>
@@ -10728,16 +10624,16 @@
         <v>46</v>
       </c>
       <c r="B371" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="C371" t="s">
-        <v>573</v>
+        <v>538</v>
       </c>
       <c r="D371" s="2">
         <v>43511</v>
       </c>
       <c r="E371" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F371">
         <v>109</v>
@@ -10751,16 +10647,16 @@
         <v>58</v>
       </c>
       <c r="B372" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="C372" t="s">
-        <v>574</v>
+        <v>539</v>
       </c>
       <c r="D372" s="2">
         <v>43511</v>
       </c>
       <c r="E372" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F372">
         <v>110</v>
@@ -10774,16 +10670,16 @@
         <v>58</v>
       </c>
       <c r="B373" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="C373" t="s">
-        <v>575</v>
+        <v>540</v>
       </c>
       <c r="D373" s="2">
         <v>43511</v>
       </c>
       <c r="E373" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F373">
         <v>111</v>
@@ -10797,16 +10693,16 @@
         <v>34</v>
       </c>
       <c r="B374" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="C374" t="s">
-        <v>572</v>
+        <v>537</v>
       </c>
       <c r="D374" s="2">
         <v>43511</v>
       </c>
       <c r="E374" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F374">
         <v>112</v>
@@ -10820,16 +10716,16 @@
         <v>38</v>
       </c>
       <c r="B375" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="C375" t="s">
-        <v>576</v>
+        <v>541</v>
       </c>
       <c r="D375" s="2">
         <v>43514</v>
       </c>
       <c r="E375" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F375">
         <v>113</v>
@@ -10843,16 +10739,16 @@
         <v>38</v>
       </c>
       <c r="B376" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="C376" t="s">
-        <v>577</v>
+        <v>542</v>
       </c>
       <c r="D376" s="2">
         <v>43514</v>
       </c>
       <c r="E376" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F376">
         <v>114</v>
@@ -10866,16 +10762,16 @@
         <v>42</v>
       </c>
       <c r="B377" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="C377" t="s">
-        <v>578</v>
+        <v>543</v>
       </c>
       <c r="D377" s="2">
         <v>43514</v>
       </c>
       <c r="E377" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F377">
         <v>115</v>
@@ -10889,16 +10785,16 @@
         <v>50</v>
       </c>
       <c r="B378" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="C378" t="s">
-        <v>579</v>
+        <v>544</v>
       </c>
       <c r="D378" s="2">
         <v>43515</v>
       </c>
       <c r="E378" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F378">
         <v>116</v>
@@ -10912,16 +10808,16 @@
         <v>50</v>
       </c>
       <c r="B379" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="C379" t="s">
-        <v>579</v>
+        <v>544</v>
       </c>
       <c r="D379" s="2">
         <v>43515</v>
       </c>
       <c r="E379" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F379">
         <v>117</v>
@@ -10932,19 +10828,19 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B380" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C380" t="s">
-        <v>580</v>
+        <v>545</v>
       </c>
       <c r="D380" s="2">
         <v>43517</v>
       </c>
       <c r="E380" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F380">
         <v>118</v>
@@ -10955,19 +10851,19 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B381" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="C381" t="s">
-        <v>581</v>
+        <v>546</v>
       </c>
       <c r="D381" s="2">
         <v>43518</v>
       </c>
       <c r="E381" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F381">
         <v>119</v>
@@ -10981,16 +10877,16 @@
         <v>54</v>
       </c>
       <c r="B382" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C382" t="s">
-        <v>581</v>
+        <v>546</v>
       </c>
       <c r="D382" s="2">
         <v>43518</v>
       </c>
       <c r="E382" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F382">
         <v>120</v>
@@ -11004,16 +10900,16 @@
         <v>54</v>
       </c>
       <c r="B383" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="C383" t="s">
-        <v>582</v>
+        <v>547</v>
       </c>
       <c r="D383" s="2">
         <v>43518</v>
       </c>
       <c r="E383" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F383">
         <v>121</v>
@@ -11027,16 +10923,16 @@
         <v>54</v>
       </c>
       <c r="B384" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="C384" t="s">
-        <v>582</v>
+        <v>547</v>
       </c>
       <c r="D384" s="2">
         <v>43518</v>
       </c>
       <c r="E384" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F384">
         <v>122</v>
@@ -11047,19 +10943,19 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B385" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C385" t="s">
-        <v>581</v>
+        <v>546</v>
       </c>
       <c r="D385" s="2">
         <v>43518</v>
       </c>
       <c r="E385" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F385">
         <v>123</v>
@@ -11073,16 +10969,16 @@
         <v>54</v>
       </c>
       <c r="B386" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="C386" t="s">
-        <v>581</v>
+        <v>546</v>
       </c>
       <c r="D386" s="2">
         <v>43518</v>
       </c>
       <c r="E386" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F386">
         <v>124</v>
@@ -11096,16 +10992,16 @@
         <v>59</v>
       </c>
       <c r="B387" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="C387" t="s">
-        <v>583</v>
+        <v>548</v>
       </c>
       <c r="D387" s="2">
         <v>43522</v>
       </c>
       <c r="E387" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F387">
         <v>125</v>
@@ -11119,16 +11015,16 @@
         <v>53</v>
       </c>
       <c r="B388" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="C388" t="s">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="D388" s="2">
         <v>43524</v>
       </c>
       <c r="E388" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F388">
         <v>126</v>
@@ -11142,16 +11038,16 @@
         <v>53</v>
       </c>
       <c r="B389" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="C389" t="s">
-        <v>585</v>
+        <v>550</v>
       </c>
       <c r="D389" s="2">
         <v>43524</v>
       </c>
       <c r="E389" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F389">
         <v>127</v>
@@ -11165,16 +11061,16 @@
         <v>53</v>
       </c>
       <c r="B390" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C390" t="s">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="D390" s="2">
         <v>43524</v>
       </c>
       <c r="E390" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F390">
         <v>128</v>
@@ -11188,16 +11084,16 @@
         <v>53</v>
       </c>
       <c r="B391" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="C391" t="s">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="D391" s="2">
         <v>43524</v>
       </c>
       <c r="E391" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F391">
         <v>129</v>
@@ -11211,16 +11107,16 @@
         <v>53</v>
       </c>
       <c r="B392" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="C392" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="D392" s="2">
         <v>43524</v>
       </c>
       <c r="E392" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F392">
         <v>130</v>
@@ -11234,16 +11130,16 @@
         <v>53</v>
       </c>
       <c r="B393" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="C393" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="D393" s="2">
         <v>43524</v>
       </c>
       <c r="E393" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F393">
         <v>131</v>
@@ -11257,16 +11153,16 @@
         <v>53</v>
       </c>
       <c r="B394" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C394" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="D394" s="2">
         <v>43524</v>
       </c>
       <c r="E394" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F394">
         <v>132</v>
@@ -11280,16 +11176,16 @@
         <v>56</v>
       </c>
       <c r="B395" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C395" t="s">
-        <v>586</v>
+        <v>551</v>
       </c>
       <c r="D395" s="2">
         <v>43525</v>
       </c>
       <c r="E395" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F395">
         <v>133</v>
@@ -11300,19 +11196,19 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="B396" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C396" t="s">
-        <v>587</v>
+        <v>552</v>
       </c>
       <c r="D396" s="2">
         <v>43529</v>
       </c>
       <c r="E396" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F396">
         <v>134</v>
@@ -11323,19 +11219,19 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B397" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="C397" t="s">
-        <v>588</v>
+        <v>553</v>
       </c>
       <c r="D397" s="2">
         <v>43530</v>
       </c>
       <c r="E397" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F397">
         <v>135</v>
@@ -11346,19 +11242,19 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B398" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="C398" t="s">
-        <v>589</v>
+        <v>554</v>
       </c>
       <c r="D398" s="2">
         <v>43530</v>
       </c>
       <c r="E398" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F398">
         <v>136</v>
@@ -11369,19 +11265,19 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B399" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="C399" t="s">
-        <v>589</v>
+        <v>554</v>
       </c>
       <c r="D399" s="2">
         <v>43530</v>
       </c>
       <c r="E399" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F399">
         <v>137</v>
@@ -11392,19 +11288,19 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B400" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="C400" t="s">
-        <v>588</v>
+        <v>553</v>
       </c>
       <c r="D400" s="2">
         <v>43530</v>
       </c>
       <c r="E400" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F400">
         <v>138</v>
@@ -11415,19 +11311,19 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="B401" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="C401" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="D401" s="2">
         <v>43530</v>
       </c>
       <c r="E401" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F401">
         <v>139</v>
@@ -11438,19 +11334,19 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B402" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="C402" t="s">
-        <v>591</v>
+        <v>556</v>
       </c>
       <c r="D402" s="2">
         <v>43536</v>
       </c>
       <c r="E402" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F402">
         <v>140</v>
@@ -11461,19 +11357,19 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B403" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="C403" t="s">
-        <v>592</v>
+        <v>557</v>
       </c>
       <c r="D403" s="2">
         <v>43585</v>
       </c>
       <c r="E403" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F403">
         <v>141</v>
@@ -11487,16 +11383,16 @@
         <v>54</v>
       </c>
       <c r="B404" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="C404" t="s">
-        <v>593</v>
+        <v>558</v>
       </c>
       <c r="D404" s="2">
         <v>43587</v>
       </c>
       <c r="E404" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F404">
         <v>142</v>
@@ -11510,16 +11406,16 @@
         <v>35</v>
       </c>
       <c r="B405" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="C405" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="D405" s="2">
         <v>43592</v>
       </c>
       <c r="E405" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F405">
         <v>143</v>
@@ -11530,19 +11426,19 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="B406" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="C406" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="D406" s="2">
         <v>43593</v>
       </c>
       <c r="E406" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F406">
         <v>144</v>
@@ -11553,19 +11449,19 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B407" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="C407" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D407" s="2">
         <v>43593</v>
       </c>
       <c r="E407" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F407">
         <v>145</v>
@@ -11576,19 +11472,19 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="B408" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="C408" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="D408" s="2">
         <v>43597</v>
       </c>
       <c r="E408" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F408">
         <v>146</v>
@@ -11602,13 +11498,13 @@
         <v>30</v>
       </c>
       <c r="B409" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="C409" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="E409" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F409">
         <v>147</v>
@@ -11619,16 +11515,16 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B410" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="C410" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="E410" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F410">
         <v>148</v>
@@ -11639,16 +11535,16 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="B411" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="C411" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="E411" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F411">
         <v>149</v>
@@ -11659,16 +11555,16 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B412" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="C412" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="E412" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F412">
         <v>150</v>
@@ -11682,13 +11578,13 @@
         <v>11</v>
       </c>
       <c r="B413" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="C413" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="E413" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F413">
         <v>151</v>
@@ -11702,13 +11598,13 @@
         <v>10</v>
       </c>
       <c r="B414" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="C414" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="E414" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F414">
         <v>152</v>
@@ -11722,13 +11618,13 @@
         <v>20</v>
       </c>
       <c r="B415" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="C415" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="E415" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="F415">
         <v>153</v>
